--- a/senai/aula011/exercicio-clinica/backend/docs/Lista de Erros.xlsx
+++ b/senai/aula011/exercicio-clinica/backend/docs/Lista de Erros.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isaac\github\PWBE\senai\aula011\exercicio-clinica\backend\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C4045-3967-4D68-9811-80AADC00F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,253 +27,253 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
   <si>
-    <t xml:space="preserve">Nome do arquivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nº da linha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição do erro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolução</t>
-  </si>
-  <si>
-    <t xml:space="preserve">especialidades.routes.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função "cadastra"  de "especialidades.controller.js" escrita incorretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renomeada para "cadastrar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função "lista"  de "especialidades.controller.js" escrita incorretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renomeada para "listar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atendimentos.controller.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funçao "listar" não exportada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função exportada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL "data = 'data' " referenciada de forma incorreta na constante "query"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigida para "data = '${data}' "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL da constante "query" faltando funçao de filtrar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigida para "... WHERE id = ${id}"</t>
+    <t>Nome do arquivo</t>
+  </si>
+  <si>
+    <t>Nº da linha</t>
+  </si>
+  <si>
+    <t>Descrição do erro</t>
+  </si>
+  <si>
+    <t>Resolução</t>
+  </si>
+  <si>
+    <t>especialidades.routes.js</t>
+  </si>
+  <si>
+    <t>função "cadastra"  de "especialidades.controller.js" escrita incorretamente</t>
+  </si>
+  <si>
+    <t>renomeada para "cadastrar"</t>
+  </si>
+  <si>
+    <t>função "lista"  de "especialidades.controller.js" escrita incorretamente</t>
+  </si>
+  <si>
+    <t>renomeada para "listar"</t>
+  </si>
+  <si>
+    <t>atendimentos.controller.js</t>
+  </si>
+  <si>
+    <t>funçao "listar" não exportada</t>
+  </si>
+  <si>
+    <t>função exportada</t>
+  </si>
+  <si>
+    <t>sintaxe SQL "data = 'data' " referenciada de forma incorreta na constante "query"</t>
+  </si>
+  <si>
+    <t>sintaxe corrigida para "data = '${data}' "</t>
+  </si>
+  <si>
+    <t>sintaxe SQL da constante "query" faltando funçao de filtrar</t>
+  </si>
+  <si>
+    <t>sintaxe corrigida para "... WHERE id = ${id}"</t>
   </si>
   <si>
     <t xml:space="preserve">falta da requisição do objeto "{id}" </t>
   </si>
   <si>
-    <t xml:space="preserve">criação da constante "{id}" requisitando o parametro da url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status code  incorreto "status(500)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correção do status code para "status(204)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parâmetro "resultado" da função callback da conecção com o banco de dados, escrito incorretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para "result"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">está fazendo uma requisição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para retornar uma resposta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status code  incorreto "status(200)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correção do status code para "status(201)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL " '${data.paciente_id}' " incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correção da sintaxe, remoção das aspas simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¨6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL "atndimentos" incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigida para "atendimentos"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falta da constante "con" para a conecção com o banco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inserindo a constante para acessar sua função "query()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">server.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funçao escrita incorretamente "express.json"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigida para "express.json()"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL " '${id}' " incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corigido para "${id}"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requisição da constante "{data}" incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constante trocada para "{id}"  e requisitando parâmetros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requisição da constante "{id}" incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constante trocada para "{data}"  e requisitando pelo body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status code "status(200)" incorreto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correção do status code para "status(202)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">especialidades.controller.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL " ${data.especialidade}' " incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigida para " '${data.especialidade}'  "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL " especiaidades " incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigida para " especialidades "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicos.routes.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função "lista"  de "medicos.controller.js" escrita incorretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linha errada "let data  = req.params"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corigido para "const {data} = req.body"</t>
+    <t>criação da constante "{id}" requisitando o parametro da url</t>
+  </si>
+  <si>
+    <t>status code  incorreto "status(500)"</t>
+  </si>
+  <si>
+    <t>correção do status code para "status(204)"</t>
+  </si>
+  <si>
+    <t>parâmetro "resultado" da função callback da conecção com o banco de dados, escrito incorretamente</t>
+  </si>
+  <si>
+    <t>corrigido para "result"</t>
+  </si>
+  <si>
+    <t>está fazendo uma requisição</t>
+  </si>
+  <si>
+    <t>corrigido para retornar uma resposta</t>
+  </si>
+  <si>
+    <t>status code  incorreto "status(200)"</t>
+  </si>
+  <si>
+    <t>correção do status code para "status(201)"</t>
+  </si>
+  <si>
+    <t>sintaxe SQL " '${data.paciente_id}' " incorreta</t>
+  </si>
+  <si>
+    <t>correção da sintaxe, remoção das aspas simples</t>
+  </si>
+  <si>
+    <t>¨6</t>
+  </si>
+  <si>
+    <t>sintaxe SQL "atndimentos" incorreta</t>
+  </si>
+  <si>
+    <t>sintaxe corrigida para "atendimentos"</t>
+  </si>
+  <si>
+    <t>falta da constante "con" para a conecção com o banco</t>
+  </si>
+  <si>
+    <t>inserindo a constante para acessar sua função "query()"</t>
+  </si>
+  <si>
+    <t>server.js</t>
+  </si>
+  <si>
+    <t>funçao escrita incorretamente "express.json"</t>
+  </si>
+  <si>
+    <t>corrigida para "express.json()"</t>
+  </si>
+  <si>
+    <t>sintaxe SQL " '${id}' " incorreta</t>
+  </si>
+  <si>
+    <t>corigido para "${id}"</t>
+  </si>
+  <si>
+    <t>requisição da constante "{data}" incorreta</t>
+  </si>
+  <si>
+    <t>constante trocada para "{id}"  e requisitando parâmetros</t>
+  </si>
+  <si>
+    <t>requisição da constante "{id}" incorreta</t>
+  </si>
+  <si>
+    <t>constante trocada para "{data}"  e requisitando pelo body</t>
+  </si>
+  <si>
+    <t>status code "status(200)" incorreto</t>
+  </si>
+  <si>
+    <t>correção do status code para "status(202)"</t>
+  </si>
+  <si>
+    <t>especialidades.controller.js</t>
+  </si>
+  <si>
+    <t>sintaxe SQL " ${data.especialidade}' " incorreta</t>
+  </si>
+  <si>
+    <t>sintaxe corrigida para " '${data.especialidade}'  "</t>
+  </si>
+  <si>
+    <t>sintaxe SQL " especiaidades " incorreta</t>
+  </si>
+  <si>
+    <t>sintaxe corrigida para " especialidades "</t>
+  </si>
+  <si>
+    <t>medicos.routes.js</t>
+  </si>
+  <si>
+    <t>função "lista"  de "medicos.controller.js" escrita incorretamente</t>
+  </si>
+  <si>
+    <t>linha errada "let data  = req.params"</t>
+  </si>
+  <si>
+    <t>corigido para "const {data} = req.body"</t>
   </si>
   <si>
     <t xml:space="preserve">o campo "especialidade" não existe </t>
   </si>
   <si>
-    <t xml:space="preserve">trocado para "data.nome"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linha requer uma requisição, sintaxe incorreta "result"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para "res"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medicos.controller.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status code incorreto "status(200)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrido para "status(201)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe incorreta "if(error)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para "if(err)"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL incorreta "medico"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigido "medicos"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL incorreta "  ${data.nome} ' "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigido " '${data.nome}' "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL incorreta " INNER JOY "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigido " INNER JOIN "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL incorreta " n.nome "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe corrigido " m.nome "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pacientes.routes.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função "lista"  de "pacientes.controller.js" escrita incorretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para "listar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">module router não exportado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exportando module router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pacientes.controller.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função “cadastrar” não exportada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exportando função “cadastrar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">função “listar” não exportada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exportando função “listar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe “queri” incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigindo sintaxe “query”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL incorreta "${data.nome}' "</t>
+    <t>trocado para "data.nome"</t>
+  </si>
+  <si>
+    <t>linha requer uma requisição, sintaxe incorreta "result"</t>
+  </si>
+  <si>
+    <t>corrigido para "res"</t>
+  </si>
+  <si>
+    <t>medicos.controller.js</t>
+  </si>
+  <si>
+    <t>status code incorreto "status(200)"</t>
+  </si>
+  <si>
+    <t>corrido para "status(201)"</t>
+  </si>
+  <si>
+    <t>sintaxe incorreta "if(error)"</t>
+  </si>
+  <si>
+    <t>corrigido para "if(err)"</t>
+  </si>
+  <si>
+    <t>sintaxe SQL incorreta "medico"</t>
+  </si>
+  <si>
+    <t>sintaxe corrigido "medicos"</t>
+  </si>
+  <si>
+    <t>sintaxe SQL incorreta "  ${data.nome} ' "</t>
+  </si>
+  <si>
+    <t>sintaxe corrigido " '${data.nome}' "</t>
+  </si>
+  <si>
+    <t>sintaxe SQL incorreta " INNER JOY "</t>
+  </si>
+  <si>
+    <t>sintaxe corrigido " INNER JOIN "</t>
+  </si>
+  <si>
+    <t>sintaxe SQL incorreta " n.nome "</t>
+  </si>
+  <si>
+    <t>sintaxe corrigido " m.nome "</t>
+  </si>
+  <si>
+    <t>pacientes.routes.js</t>
+  </si>
+  <si>
+    <t>função "lista"  de "pacientes.controller.js" escrita incorretamente</t>
+  </si>
+  <si>
+    <t>corrigido para "listar"</t>
+  </si>
+  <si>
+    <t>module router não exportado</t>
+  </si>
+  <si>
+    <t>exportando module router</t>
+  </si>
+  <si>
+    <t>pacientes.controller.js</t>
+  </si>
+  <si>
+    <t>função “cadastrar” não exportada</t>
+  </si>
+  <si>
+    <t>exportando função “cadastrar”</t>
+  </si>
+  <si>
+    <t>função “listar” não exportada</t>
+  </si>
+  <si>
+    <t>exportando função “listar”</t>
+  </si>
+  <si>
+    <t>sintaxe “queri” incorreta</t>
+  </si>
+  <si>
+    <t>corrigindo sintaxe “query”</t>
+  </si>
+  <si>
+    <t>sintaxe SQL incorreta "${data.nome}' "</t>
   </si>
   <si>
     <r>
@@ -279,7 +284,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">sintaxe corrigida “ ’</t>
+      <t>sintaxe corrigida “ ’</t>
     </r>
     <r>
       <rPr>
@@ -298,105 +303,102 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">”</t>
+      <t>”</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">linha incorreta “let data = res.data”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigida para “const {data} = req.body”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status code corrigido para “status(201)”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variável incorreta “json(info)”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para “json(data.id)”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path incorreto “../medicos”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path corrigido “/medicos.controller”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path incorreto “../../controller”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path corrigido “../controllers”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atendimentos.routes.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path incorreto “./”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path corrigido “../”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uso incorreto de requisição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substituido por uma resposta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connection.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe incorreta "host:locahost"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para “host:localhost”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nome incorreto do banco de dados “petshop”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substituido por uma “clinica”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL “paciente” incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para “pacientes”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL “atendimetos” incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido por “atendimentos”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linha incorreta “let data = req.query”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido por “const {data} = req.body”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL “nascimento” incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para “${data_nascimento}”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sintaxe SQL “especilidade_id”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrigido para “especialidade_id”</t>
+    <t>linha incorreta “let data = res.data”</t>
+  </si>
+  <si>
+    <t>status code corrigido para “status(201)”</t>
+  </si>
+  <si>
+    <t>variável incorreta “json(info)”</t>
+  </si>
+  <si>
+    <t>corrigido para “json(data.id)”</t>
+  </si>
+  <si>
+    <t>path incorreto “../medicos”</t>
+  </si>
+  <si>
+    <t>path corrigido “/medicos.controller”</t>
+  </si>
+  <si>
+    <t>path incorreto “../../controller”</t>
+  </si>
+  <si>
+    <t>path corrigido “../controllers”</t>
+  </si>
+  <si>
+    <t>atendimentos.routes.js</t>
+  </si>
+  <si>
+    <t>path incorreto “./”</t>
+  </si>
+  <si>
+    <t>path corrigido “../”</t>
+  </si>
+  <si>
+    <t>uso incorreto de requisição</t>
+  </si>
+  <si>
+    <t>substituido por uma resposta</t>
+  </si>
+  <si>
+    <t>connection.js</t>
+  </si>
+  <si>
+    <t>sintaxe incorreta "host:locahost"</t>
+  </si>
+  <si>
+    <t>corrigido para “host:localhost”</t>
+  </si>
+  <si>
+    <t>nome incorreto do banco de dados “petshop”</t>
+  </si>
+  <si>
+    <t>substituido por uma “clinica”</t>
+  </si>
+  <si>
+    <t>sintaxe SQL “paciente” incorreta</t>
+  </si>
+  <si>
+    <t>corrigido para “pacientes”</t>
+  </si>
+  <si>
+    <t>sintaxe SQL “atendimetos” incorreta</t>
+  </si>
+  <si>
+    <t>corrigido por “atendimentos”</t>
+  </si>
+  <si>
+    <t>linha incorreta “let data = req.query”</t>
+  </si>
+  <si>
+    <t>sintaxe SQL “nascimento” incorreta</t>
+  </si>
+  <si>
+    <t>corrigido para “${data_nascimento}”</t>
+  </si>
+  <si>
+    <t>sintaxe SQL “especilidade_id”</t>
+  </si>
+  <si>
+    <t>corrigido para “especialidade_id”</t>
+  </si>
+  <si>
+    <t>corrigida para “let data = req.body”</t>
+  </si>
+  <si>
+    <t>corrigido por “let data = req.body”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,22 +407,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -443,7 +430,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -451,112 +438,372 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="70.71"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,11 +817,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -584,11 +831,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -598,11 +845,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -612,11 +859,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -626,11 +873,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>59</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -640,11 +887,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -654,11 +901,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -668,11 +915,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -682,11 +929,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -696,11 +943,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -710,11 +957,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:5" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -724,7 +971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -738,11 +985,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -752,11 +999,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -766,11 +1013,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7">
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -780,11 +1027,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="7">
         <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -794,11 +1041,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -808,11 +1055,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7">
         <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -822,11 +1069,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7">
         <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -836,11 +1083,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>6</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -850,11 +1097,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -864,11 +1111,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -878,11 +1125,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7">
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -892,11 +1139,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="7">
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -906,11 +1153,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="7">
         <v>16</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -920,11 +1167,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7">
         <v>26</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -934,11 +1181,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7">
         <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -948,11 +1195,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="7">
         <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -962,11 +1209,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="7">
         <v>27</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -976,11 +1223,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="7">
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -990,11 +1237,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="7">
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1004,11 +1251,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="7">
         <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1018,11 +1265,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="7">
         <v>22</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -1032,11 +1279,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="7">
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -1046,11 +1293,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="7">
         <v>10</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1060,11 +1307,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="7">
         <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -1074,11 +1321,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="7">
         <v>21</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -1088,11 +1335,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="7">
         <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -1102,11 +1349,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="7">
         <v>6</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -1116,237 +1363,232 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="7">
         <v>4</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="7">
         <v>16</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="7">
         <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="7">
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="7">
         <v>3</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="5" t="s">
+    </row>
+    <row r="47" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="9" t="s">
+    </row>
+    <row r="48" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="7">
+        <v>26</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="5" t="s">
+    </row>
+    <row r="49" spans="2:5" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" s="6" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="5" t="s">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="E50" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="1">
         <v>22</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="1">
         <v>30</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>22</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="0" t="s">
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>6</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="1">
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="1">
         <v>6</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>112</v>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>